--- a/results-partial/HW_C024_120.xlsx
+++ b/results-partial/HW_C024_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.45103973375281</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.00078137715614</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.9676407038864</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.02978825616842</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28.9676407038864</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.68062355732179</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.99995409239356</v>
-      </c>
-      <c r="I2" t="n">
-        <v>28.78756456801334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.47001208672447</v>
+        <v>27.45103973375281</v>
       </c>
       <c r="C3" t="n">
-        <v>29.00913922253115</v>
+        <v>29.00078137715614</v>
       </c>
       <c r="D3" t="n">
-        <v>28.9885326130606</v>
+        <v>28.9676407038864</v>
       </c>
       <c r="E3" t="n">
-        <v>29.02176011758808</v>
+        <v>29.02978825616842</v>
       </c>
       <c r="F3" t="n">
-        <v>28.9885326130606</v>
+        <v>28.9676407038864</v>
       </c>
       <c r="G3" t="n">
-        <v>27.69821085450393</v>
+        <v>28.2385508707252</v>
       </c>
       <c r="H3" t="n">
-        <v>28.98120564569585</v>
+        <v>28.99995409239356</v>
       </c>
       <c r="I3" t="n">
-        <v>28.78087258264985</v>
+        <v>28.78756456801334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.4514745931836</v>
+        <v>27.47001208672447</v>
       </c>
       <c r="C4" t="n">
-        <v>28.98759761848466</v>
+        <v>29.00913922253115</v>
       </c>
       <c r="D4" t="n">
-        <v>28.96339582073095</v>
+        <v>28.9885326130606</v>
       </c>
       <c r="E4" t="n">
-        <v>29.02378347308009</v>
+        <v>29.02176011758808</v>
       </c>
       <c r="F4" t="n">
-        <v>28.96339582073095</v>
+        <v>28.9885326130606</v>
       </c>
       <c r="G4" t="n">
-        <v>27.68424443522845</v>
+        <v>28.22828086930866</v>
       </c>
       <c r="H4" t="n">
-        <v>28.98390008507995</v>
+        <v>28.98120564569585</v>
       </c>
       <c r="I4" t="n">
-        <v>28.779602198104</v>
+        <v>28.78087258264985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.45987433437825</v>
+        <v>27.4514745931836</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9808089741356</v>
+        <v>28.98759761848466</v>
       </c>
       <c r="D5" t="n">
-        <v>28.98775932077761</v>
+        <v>28.96339582073095</v>
       </c>
       <c r="E5" t="n">
-        <v>29.02974948003608</v>
+        <v>29.02378347308009</v>
       </c>
       <c r="F5" t="n">
-        <v>28.98775932077761</v>
+        <v>28.96339582073095</v>
       </c>
       <c r="G5" t="n">
-        <v>27.69176282093398</v>
+        <v>28.22809638804012</v>
       </c>
       <c r="H5" t="n">
-        <v>28.98435864161655</v>
+        <v>28.98390008507995</v>
       </c>
       <c r="I5" t="n">
-        <v>28.77668178875089</v>
+        <v>28.779602198104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.46209955133791</v>
+        <v>27.45987433437825</v>
       </c>
       <c r="C6" t="n">
-        <v>28.97984022992798</v>
+        <v>28.9808089741356</v>
       </c>
       <c r="D6" t="n">
-        <v>28.95075669839779</v>
+        <v>28.98775932077761</v>
       </c>
       <c r="E6" t="n">
-        <v>29.00672657132097</v>
+        <v>29.02974948003608</v>
       </c>
       <c r="F6" t="n">
-        <v>28.95075669839779</v>
+        <v>28.98775932077761</v>
       </c>
       <c r="G6" t="n">
-        <v>27.69009128400014</v>
+        <v>28.22834058161741</v>
       </c>
       <c r="H6" t="n">
-        <v>28.96842979515579</v>
+        <v>28.98435864161655</v>
       </c>
       <c r="I6" t="n">
-        <v>28.77025419392418</v>
+        <v>28.77668178875089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.45186209844839</v>
+        <v>27.46209955133791</v>
       </c>
       <c r="C7" t="n">
-        <v>28.99703360413185</v>
+        <v>28.97984022992798</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9652220374186</v>
+        <v>28.95075669839779</v>
       </c>
       <c r="E7" t="n">
-        <v>29.02810450852984</v>
+        <v>29.00672657132097</v>
       </c>
       <c r="F7" t="n">
-        <v>28.9652220374186</v>
+        <v>28.95075669839779</v>
       </c>
       <c r="G7" t="n">
-        <v>27.68736664267677</v>
+        <v>28.22450042427545</v>
       </c>
       <c r="H7" t="n">
-        <v>28.98064374799339</v>
+        <v>28.96842979515579</v>
       </c>
       <c r="I7" t="n">
-        <v>28.77322519227207</v>
+        <v>28.77025419392418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.45331013859491</v>
+        <v>27.45186209844839</v>
       </c>
       <c r="C8" t="n">
-        <v>28.97555490504052</v>
+        <v>28.99703360413185</v>
       </c>
       <c r="D8" t="n">
-        <v>28.95808870321341</v>
+        <v>28.9652220374186</v>
       </c>
       <c r="E8" t="n">
-        <v>29.02055852918206</v>
+        <v>29.02810450852984</v>
       </c>
       <c r="F8" t="n">
-        <v>28.95808870321341</v>
+        <v>28.9652220374186</v>
       </c>
       <c r="G8" t="n">
-        <v>27.68544862068173</v>
+        <v>28.22534903624589</v>
       </c>
       <c r="H8" t="n">
-        <v>28.97810287684981</v>
+        <v>28.98064374799339</v>
       </c>
       <c r="I8" t="n">
-        <v>28.78579969874675</v>
+        <v>28.77322519227207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.46968888338561</v>
+        <v>27.45331013859491</v>
       </c>
       <c r="C9" t="n">
-        <v>29.01149070585449</v>
+        <v>28.97555490504052</v>
       </c>
       <c r="D9" t="n">
-        <v>28.98179771143316</v>
+        <v>28.95808870321341</v>
       </c>
       <c r="E9" t="n">
-        <v>29.03676489765742</v>
+        <v>29.02055852918206</v>
       </c>
       <c r="F9" t="n">
-        <v>28.98179771143316</v>
+        <v>28.95808870321341</v>
       </c>
       <c r="G9" t="n">
-        <v>27.69754175761421</v>
+        <v>28.23993945666244</v>
       </c>
       <c r="H9" t="n">
-        <v>28.98981616882067</v>
+        <v>28.97810287684981</v>
       </c>
       <c r="I9" t="n">
-        <v>28.78462828343715</v>
+        <v>28.78579969874675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.46596940576997</v>
+        <v>27.46968888338561</v>
       </c>
       <c r="C10" t="n">
-        <v>28.99038511327921</v>
+        <v>29.01149070585449</v>
       </c>
       <c r="D10" t="n">
-        <v>28.97878096165319</v>
+        <v>28.98179771143316</v>
       </c>
       <c r="E10" t="n">
-        <v>29.01389006691526</v>
+        <v>29.03676489765742</v>
       </c>
       <c r="F10" t="n">
-        <v>28.97880931773347</v>
+        <v>28.98179771143316</v>
       </c>
       <c r="G10" t="n">
-        <v>27.70423916389911</v>
+        <v>28.25000460194132</v>
       </c>
       <c r="H10" t="n">
-        <v>28.97574312175779</v>
+        <v>28.98981616882067</v>
       </c>
       <c r="I10" t="n">
-        <v>28.76702644694733</v>
+        <v>28.78462828343715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.46596940576997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.99038511327921</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.97878096165319</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.01389006691526</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.97880931773347</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.22058803255769</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.97574312175779</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.76702644694733</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.46402022489861</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>28.99096964262594</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>28.970638401358</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>29.01244921742459</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>28.97062879554505</v>
       </c>
-      <c r="G11" t="n">
-        <v>27.69926954078056</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>28.22323951459724</v>
+      </c>
+      <c r="H12" t="n">
         <v>28.98210435170081</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>28.77835154923045</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.45993510504745</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28.99236013931676</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28.97126129719297</v>
-      </c>
-      <c r="E12" t="n">
-        <v>29.02235751179029</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28.9712631722197</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.69187986776407</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28.98242585270642</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.7784006502076</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.532425034269302</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.511326192145514</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.562422406742837</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.511328067172247</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2319447627166156</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.522490747658964</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.318465545160148</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8752079463318391</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.928191086580002</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9270295222532062</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9285643034387068</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9270295222532062</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9105201847129032</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9228656730557251</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.91862094942432</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8766141596260304</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9284471619015476</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9286573265862055</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9308949507742104</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9286573265862055</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9100173612576142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9224517198685308</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9179751585239139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8787657777339518</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9280117518022084</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9297263482226299</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9281731879592722</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9297263482226299</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9110164699154137</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9213445673711358</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9178175325910992</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8760953904958851</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.928905276970589</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9292199068840079</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9304552858411829</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9292199068840079</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9121331128499496</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.92154765473171</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.918166793458104</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8755685635987231</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9279876872998288</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9263866532356206</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9279723333852302</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9263866532356206</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9105387780125537</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9213421346210864</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.917382453780403</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8756241919116233</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.928287033165513</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9265090475507687</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9293941782607961</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9265090475507687</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.908846118846053</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9218390535601555</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9184433981876712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8754857570198065</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9269243494236794</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9270611211459038</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9298196120251795</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9270611211459038</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.910699157967688</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.922100757368136</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9178638377519502</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8759439039067352</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9276757113898242</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9260275853024668</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9284747434910501</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9260275853024668</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.911638905750909</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9207578730104783</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9172762267136206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.876727558400491</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9290635985823295</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9278647380658966</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9297720043310509</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9278654432881283</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9122084888126861</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9220550045790916</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.917681833412445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8766754735494194</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9284750925440939</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9282837216516253</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9286004306252373</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9282835797316744</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9108197434687789</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9214548664502709</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9173442667594826</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.64866192695948</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.33834347310628</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.30171123487135</v>
-      </c>
-      <c r="E2" t="n">
-        <v>26.57788052032313</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.30171123487135</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.5295851212248</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.56633709262722</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24.58175964600699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.64325667498629</v>
+        <v>19.64866192695948</v>
       </c>
       <c r="C3" t="n">
-        <v>26.35098218650655</v>
+        <v>26.33834347310628</v>
       </c>
       <c r="D3" t="n">
-        <v>26.36928872133966</v>
+        <v>26.30171123487135</v>
       </c>
       <c r="E3" t="n">
-        <v>26.59123215372437</v>
+        <v>26.57788052032313</v>
       </c>
       <c r="F3" t="n">
-        <v>26.36928872133966</v>
+        <v>26.30171123487135</v>
       </c>
       <c r="G3" t="n">
-        <v>20.51932891620762</v>
+        <v>23.61689137170153</v>
       </c>
       <c r="H3" t="n">
-        <v>25.53873280668903</v>
+        <v>25.56633709262722</v>
       </c>
       <c r="I3" t="n">
-        <v>24.56224640590096</v>
+        <v>24.58175964600699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.65557126468072</v>
+        <v>19.64325667498629</v>
       </c>
       <c r="C4" t="n">
-        <v>26.38797909234277</v>
+        <v>26.35098218650655</v>
       </c>
       <c r="D4" t="n">
-        <v>26.38142757185236</v>
+        <v>26.36928872133966</v>
       </c>
       <c r="E4" t="n">
-        <v>26.61658504438477</v>
+        <v>26.59123215372437</v>
       </c>
       <c r="F4" t="n">
-        <v>26.38142757185236</v>
+        <v>26.36928872133966</v>
       </c>
       <c r="G4" t="n">
-        <v>20.53162387001393</v>
+        <v>23.61508583928499</v>
       </c>
       <c r="H4" t="n">
-        <v>25.6026981461732</v>
+        <v>25.53873280668903</v>
       </c>
       <c r="I4" t="n">
-        <v>24.60385279501161</v>
+        <v>24.56224640590096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.65489040634082</v>
+        <v>19.65557126468072</v>
       </c>
       <c r="C5" t="n">
-        <v>26.32768230351232</v>
+        <v>26.38797909234277</v>
       </c>
       <c r="D5" t="n">
-        <v>26.37050650074526</v>
+        <v>26.38142757185236</v>
       </c>
       <c r="E5" t="n">
-        <v>26.57446575656654</v>
+        <v>26.61658504438477</v>
       </c>
       <c r="F5" t="n">
-        <v>26.37050650074526</v>
+        <v>26.38142757185236</v>
       </c>
       <c r="G5" t="n">
-        <v>20.53116087957304</v>
+        <v>23.64638653039496</v>
       </c>
       <c r="H5" t="n">
-        <v>25.54922003685539</v>
+        <v>25.6026981461732</v>
       </c>
       <c r="I5" t="n">
-        <v>24.57981615517106</v>
+        <v>24.60385279501161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.64757837367189</v>
+        <v>19.65489040634082</v>
       </c>
       <c r="C6" t="n">
-        <v>26.35799288447632</v>
+        <v>26.32768230351232</v>
       </c>
       <c r="D6" t="n">
-        <v>26.36268213659076</v>
+        <v>26.37050650074526</v>
       </c>
       <c r="E6" t="n">
-        <v>26.61092754905783</v>
+        <v>26.57446575656654</v>
       </c>
       <c r="F6" t="n">
-        <v>26.36268213659076</v>
+        <v>26.37050650074526</v>
       </c>
       <c r="G6" t="n">
-        <v>20.51869441367202</v>
+        <v>23.62940227860944</v>
       </c>
       <c r="H6" t="n">
-        <v>25.53499126319608</v>
+        <v>25.54922003685539</v>
       </c>
       <c r="I6" t="n">
-        <v>24.55502283392011</v>
+        <v>24.57981615517106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.64433111774049</v>
+        <v>19.64757837367189</v>
       </c>
       <c r="C7" t="n">
-        <v>26.35140532481909</v>
+        <v>26.35799288447632</v>
       </c>
       <c r="D7" t="n">
-        <v>26.32629405337611</v>
+        <v>26.36268213659076</v>
       </c>
       <c r="E7" t="n">
-        <v>26.59356261807905</v>
+        <v>26.61092754905783</v>
       </c>
       <c r="F7" t="n">
-        <v>26.32624544093421</v>
+        <v>26.36268213659076</v>
       </c>
       <c r="G7" t="n">
-        <v>20.51933577699571</v>
+        <v>23.64778563000459</v>
       </c>
       <c r="H7" t="n">
-        <v>25.56644980792897</v>
+        <v>25.53499126319608</v>
       </c>
       <c r="I7" t="n">
-        <v>24.56082759889119</v>
+        <v>24.55502283392011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.65509330317094</v>
+        <v>19.64433111774049</v>
       </c>
       <c r="C8" t="n">
-        <v>26.34835156476609</v>
+        <v>26.35140532481909</v>
       </c>
       <c r="D8" t="n">
-        <v>26.35064944800847</v>
+        <v>26.32629405337611</v>
       </c>
       <c r="E8" t="n">
-        <v>26.58472514421011</v>
+        <v>26.59356261807905</v>
       </c>
       <c r="F8" t="n">
-        <v>26.35065554704656</v>
+        <v>26.32624544093421</v>
       </c>
       <c r="G8" t="n">
-        <v>20.52612738956919</v>
+        <v>23.62086725820104</v>
       </c>
       <c r="H8" t="n">
-        <v>25.53600006479947</v>
+        <v>25.56644980792897</v>
       </c>
       <c r="I8" t="n">
-        <v>24.54665071842748</v>
+        <v>24.56082759889119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.65480343911532</v>
+        <v>19.65509330317094</v>
       </c>
       <c r="C9" t="n">
-        <v>26.35185619219699</v>
+        <v>26.34835156476609</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3451004341515</v>
+        <v>26.35064944800847</v>
       </c>
       <c r="E9" t="n">
-        <v>26.6046961908454</v>
+        <v>26.58472514421011</v>
       </c>
       <c r="F9" t="n">
-        <v>26.3451004341515</v>
+        <v>26.35065554704656</v>
       </c>
       <c r="G9" t="n">
-        <v>20.52772649286526</v>
+        <v>23.62456467952592</v>
       </c>
       <c r="H9" t="n">
-        <v>25.54161828237438</v>
+        <v>25.53600006479947</v>
       </c>
       <c r="I9" t="n">
-        <v>24.54842736337062</v>
+        <v>24.54665071842748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.64498065119335</v>
+        <v>19.65480343911532</v>
       </c>
       <c r="C10" t="n">
-        <v>26.31941534631948</v>
+        <v>26.35185619219699</v>
       </c>
       <c r="D10" t="n">
-        <v>26.36344669831058</v>
+        <v>26.3451004341515</v>
       </c>
       <c r="E10" t="n">
-        <v>26.56794818972513</v>
+        <v>26.6046961908454</v>
       </c>
       <c r="F10" t="n">
-        <v>26.36344669831058</v>
+        <v>26.3451004341515</v>
       </c>
       <c r="G10" t="n">
-        <v>20.52267905404992</v>
+        <v>23.612583840036</v>
       </c>
       <c r="H10" t="n">
-        <v>25.51722175269063</v>
+        <v>25.54161828237438</v>
       </c>
       <c r="I10" t="n">
-        <v>24.52184132476219</v>
+        <v>24.54842736337062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.64498065119335</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.31941534631948</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.36344669831058</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26.56794818972513</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.36344669831058</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.61373845287192</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.51722175269063</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24.52184132476219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.64929363825734</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>26.34499107423487</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>26.32636935241693</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>26.58042938248769</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>26.32637961632782</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.5252879414044</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>23.63297619056511</v>
+      </c>
+      <c r="H12" t="n">
         <v>25.55376956803781</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>24.57188541182916</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.64984607961166</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.34789994422808</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.34974761516629</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.59024525494041</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26.349744390217</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.52515498555759</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.55070388213722</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24.56323302532914</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.698053864616412</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.699901535554631</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.940399175328743</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.699898310605342</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8753089059459249</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.900857802525554</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.913386945717473</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6455146938966213</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8752520608846648</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8744331059825842</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8745750999100627</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8744331059825842</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7822743580985846</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8384025428686226</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.79961205346228</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6449467831881344</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8754318978572452</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8800839558827501</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8750656959810982</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8800839558827501</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7796035540279364</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8343115223012224</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.795023770940381</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6460172392276723</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8765876665898547</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8769996189312043</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8778431775996591</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8769996189312043</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7802892486713732</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8388760796721759</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7997852408305953</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.645461321336007</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.874798446273637</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8748257784473075</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8736660702437984</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8748257784473075</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7805589093140605</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8352084746749083</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7950341603404723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6451817449654805</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8744209476325954</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8756741574997875</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8752315932249284</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8756741574997875</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7790763846193577</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8368715476631339</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7964912708639267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6455243860628676</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8756231123594627</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8777226483891847</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8732699812827864</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8777225183342804</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7793026117594376</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8346981954847481</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7969003875584916</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6456320369302324</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8756286472286885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8772509201333391</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8754826973024167</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8772503012362773</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7811901741326598</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8336605346909798</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7964890671860151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6451545262581634</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8749133637380831</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8749749106227979</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8750433003413732</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8749749106227979</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7804531908912039</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8330267231108948</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7961984546630213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6447300445189491</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8737058261402374</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8760049880842298</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8746271137368574</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8760049880842298</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7814296710243465</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8335801427931655</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7946064990462441</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6453540115347345</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8735337789550042</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8758361547564736</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8755362518237589</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.875835555161815</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7809675356454113</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8350561047035844</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7958193991916309</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.47904939829139</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22.92009084783851</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.82799095818588</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22.90252864511902</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.82799095818588</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.85635827872785</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.92379087772777</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19.68296904438973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.49210127248127</v>
+        <v>14.47904939829139</v>
       </c>
       <c r="C3" t="n">
-        <v>22.95505725631018</v>
+        <v>22.92009084783851</v>
       </c>
       <c r="D3" t="n">
-        <v>22.81808852660324</v>
+        <v>22.82799095818588</v>
       </c>
       <c r="E3" t="n">
-        <v>22.91493125699001</v>
+        <v>22.90252864511902</v>
       </c>
       <c r="F3" t="n">
-        <v>22.81808852660324</v>
+        <v>22.82799095818588</v>
       </c>
       <c r="G3" t="n">
-        <v>16.85466545431663</v>
+        <v>19.65697711778653</v>
       </c>
       <c r="H3" t="n">
-        <v>20.89577573656967</v>
+        <v>20.92379087772777</v>
       </c>
       <c r="I3" t="n">
-        <v>19.65484861928525</v>
+        <v>19.68296904438973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.46984950534335</v>
+        <v>14.49210127248127</v>
       </c>
       <c r="C4" t="n">
-        <v>22.89699345995826</v>
+        <v>22.95505725631018</v>
       </c>
       <c r="D4" t="n">
-        <v>22.82076671750181</v>
+        <v>22.81808852660324</v>
       </c>
       <c r="E4" t="n">
-        <v>22.8721259163545</v>
+        <v>22.91493125699001</v>
       </c>
       <c r="F4" t="n">
-        <v>22.82076671750181</v>
+        <v>22.81808852660324</v>
       </c>
       <c r="G4" t="n">
-        <v>16.84253262701768</v>
+        <v>19.64032668257623</v>
       </c>
       <c r="H4" t="n">
-        <v>20.89497555576769</v>
+        <v>20.89577573656967</v>
       </c>
       <c r="I4" t="n">
-        <v>19.64448620523226</v>
+        <v>19.65484861928525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.49322492543467</v>
+        <v>14.46984950534335</v>
       </c>
       <c r="C5" t="n">
-        <v>22.92915315254307</v>
+        <v>22.89699345995826</v>
       </c>
       <c r="D5" t="n">
-        <v>22.81805645325009</v>
+        <v>22.82076671750181</v>
       </c>
       <c r="E5" t="n">
-        <v>22.88628065556483</v>
+        <v>22.8721259163545</v>
       </c>
       <c r="F5" t="n">
-        <v>22.81805645325009</v>
+        <v>22.82076671750181</v>
       </c>
       <c r="G5" t="n">
-        <v>16.86693594939297</v>
+        <v>19.63519985970943</v>
       </c>
       <c r="H5" t="n">
-        <v>20.92430316553884</v>
+        <v>20.89497555576769</v>
       </c>
       <c r="I5" t="n">
-        <v>19.67342170143912</v>
+        <v>19.64448620523226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.47744974752012</v>
+        <v>14.49322492543467</v>
       </c>
       <c r="C6" t="n">
-        <v>22.92866234738609</v>
+        <v>22.92915315254307</v>
       </c>
       <c r="D6" t="n">
-        <v>22.82520980542864</v>
+        <v>22.81805645325009</v>
       </c>
       <c r="E6" t="n">
-        <v>22.89940739803711</v>
+        <v>22.88628065556483</v>
       </c>
       <c r="F6" t="n">
-        <v>22.82520980542864</v>
+        <v>22.81805645325009</v>
       </c>
       <c r="G6" t="n">
-        <v>16.85603400114974</v>
+        <v>19.65605375791878</v>
       </c>
       <c r="H6" t="n">
-        <v>20.94186143709757</v>
+        <v>20.92430316553884</v>
       </c>
       <c r="I6" t="n">
-        <v>19.68400856056981</v>
+        <v>19.67342170143912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.46620166359357</v>
+        <v>14.47744974752012</v>
       </c>
       <c r="C7" t="n">
-        <v>22.91735259257948</v>
+        <v>22.92866234738609</v>
       </c>
       <c r="D7" t="n">
-        <v>22.80091902421642</v>
+        <v>22.82520980542864</v>
       </c>
       <c r="E7" t="n">
-        <v>22.8820433403331</v>
+        <v>22.89940739803711</v>
       </c>
       <c r="F7" t="n">
-        <v>22.80092097169459</v>
+        <v>22.82520980542864</v>
       </c>
       <c r="G7" t="n">
-        <v>16.83529857720998</v>
+        <v>19.64845834788344</v>
       </c>
       <c r="H7" t="n">
-        <v>20.88580341287859</v>
+        <v>20.94186143709757</v>
       </c>
       <c r="I7" t="n">
-        <v>19.65846562171457</v>
+        <v>19.68400856056981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.4569175079183</v>
+        <v>14.46620166359357</v>
       </c>
       <c r="C8" t="n">
-        <v>22.89009892348713</v>
+        <v>22.91735259257948</v>
       </c>
       <c r="D8" t="n">
-        <v>22.79546656878773</v>
+        <v>22.80091902421642</v>
       </c>
       <c r="E8" t="n">
-        <v>22.83417523656609</v>
+        <v>22.8820433403331</v>
       </c>
       <c r="F8" t="n">
-        <v>22.79546656878773</v>
+        <v>22.80092097169459</v>
       </c>
       <c r="G8" t="n">
-        <v>16.82517465934179</v>
+        <v>19.63380479415891</v>
       </c>
       <c r="H8" t="n">
-        <v>20.88379751100841</v>
+        <v>20.88580341287859</v>
       </c>
       <c r="I8" t="n">
-        <v>19.63979342496105</v>
+        <v>19.65846562171457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.46458970736431</v>
+        <v>14.4569175079183</v>
       </c>
       <c r="C9" t="n">
-        <v>22.88211105688297</v>
+        <v>22.89009892348713</v>
       </c>
       <c r="D9" t="n">
-        <v>22.80609216014307</v>
+        <v>22.79546656878773</v>
       </c>
       <c r="E9" t="n">
-        <v>22.85576882494625</v>
+        <v>22.83417523656609</v>
       </c>
       <c r="F9" t="n">
-        <v>22.80606926043806</v>
+        <v>22.79546656878773</v>
       </c>
       <c r="G9" t="n">
-        <v>16.83180792817521</v>
+        <v>19.6091129614982</v>
       </c>
       <c r="H9" t="n">
-        <v>20.86756009837554</v>
+        <v>20.88379751100841</v>
       </c>
       <c r="I9" t="n">
-        <v>19.63497998037374</v>
+        <v>19.63979342496105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.47102196411167</v>
+        <v>14.46458970736431</v>
       </c>
       <c r="C10" t="n">
-        <v>22.95641667622174</v>
+        <v>22.88211105688297</v>
       </c>
       <c r="D10" t="n">
-        <v>22.86621548108215</v>
+        <v>22.80609216014307</v>
       </c>
       <c r="E10" t="n">
-        <v>22.92236749894404</v>
+        <v>22.85576882494625</v>
       </c>
       <c r="F10" t="n">
-        <v>22.86621548108215</v>
+        <v>22.80606926043806</v>
       </c>
       <c r="G10" t="n">
-        <v>16.84967368863121</v>
+        <v>19.61206511048469</v>
       </c>
       <c r="H10" t="n">
-        <v>20.94703556754425</v>
+        <v>20.86756009837554</v>
       </c>
       <c r="I10" t="n">
-        <v>19.68966393755383</v>
+        <v>19.63497998037374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.47102196411167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.95641667622174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.86621548108215</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.92236749894404</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.86621548108215</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19.66362076432441</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.94703556754425</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.68966393755383</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.46574477025677</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>22.87753834053571</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>22.76481016892895</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>22.84917533974061</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>22.76481016892895</v>
       </c>
-      <c r="G11" t="n">
-        <v>16.8371979076604</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>19.61570472889828</v>
+      </c>
+      <c r="H12" t="n">
         <v>20.88756734196802</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>19.64606231401388</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.47361504623154</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22.91534746537432</v>
-      </c>
-      <c r="D12" t="n">
-        <v>22.8143615864128</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22.88188041125955</v>
-      </c>
-      <c r="F12" t="n">
-        <v>22.81435949119012</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16.84556790716234</v>
-      </c>
-      <c r="H12" t="n">
-        <v>20.90524707044764</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19.66086994095333</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.441732419142774</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.340746540181257</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.408265365028008</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.340744444958574</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.371952860930801</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.431632024216093</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.187254894721782</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4139191894711519</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7466592589655994</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7314781755277309</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7400123734046222</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7314781755277309</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5408805372029363</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6101575788265108</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5199264142989272</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4143825976920674</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7468698898387982</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7345905484380593</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7418200846202676</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7345905484380593</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5389223350071398</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6092916135536518</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5163522592428528</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4133866143085152</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.746751302268906</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7364974652983439</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7401001176883936</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7364974652983439</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5414545275146843</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.610314257266914</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5163225658500225</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4148098576855311</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7514918716071226</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.732797648565332</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7414549171662447</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.732797648565332</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5424434065578945</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6125458376412584</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5189797597088709</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4140961422256724</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7489838441921307</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7387845950150271</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7413176651538871</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7387845950150271</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5419191691232259</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6133296513711738</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5177777522755761</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4138150598952204</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7483895428989975</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7415393770494565</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7428711351794953</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7415429276675767</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5384917914952136</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6161901324629411</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.519093737611697</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4118083156522807</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7439440354788831</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7345291270883971</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7354124873526734</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7345291270883971</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5378169480643773</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6059155368981559</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5122182489392013</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4122217032295217</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7441419700961966</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.730691714610912</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7369780452378646</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7306913334142439</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5372648667042537</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6081884438789961</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5163348450873676</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4147977640669594</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7509487657513825</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7406367093644267</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7422548082785725</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7406367093644267</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5422064720190043</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6142308076415096</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5180209617380739</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4122562728291291</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7458509957882619</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7315966500822785</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7391858537055815</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7315966500822785</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5364395237009504</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6098899074223528</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5139975319524875</v>
       </c>
     </row>
   </sheetData>
